--- a/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
+++ b/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
   <si>
     <t>土地坐落</t>
   </si>
@@ -154,6 +154,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>智微科</t>
   </si>
   <si>
@@ -188,6 +197,9 @@
   </si>
   <si>
     <t>凱基證</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
   </si>
   <si>
     <t>名稱</t>
@@ -980,13 +992,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1005,13 +1017,22 @@
       <c r="G1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1028,13 +1049,22 @@
       <c r="G2" s="2">
         <v>60000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1051,13 +1081,22 @@
       <c r="G3" s="2">
         <v>112550</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1074,13 +1113,22 @@
       <c r="G4" s="2">
         <v>20000</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1097,13 +1145,22 @@
       <c r="G5" s="2">
         <v>21200</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1120,13 +1177,22 @@
       <c r="G6" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1143,13 +1209,22 @@
       <c r="G7" s="2">
         <v>50000</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1166,13 +1241,22 @@
       <c r="G8" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1189,13 +1273,22 @@
       <c r="G9" s="2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -1212,13 +1305,22 @@
       <c r="G10" s="2">
         <v>104500</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -1235,13 +1337,22 @@
       <c r="G11" s="2">
         <v>1291470</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -1258,13 +1369,22 @@
       <c r="G12" s="2">
         <v>210000</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1280,6 +1400,15 @@
       </c>
       <c r="G13" s="2">
         <v>1200000</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2">
+        <v>980</v>
       </c>
     </row>
   </sheetData>
@@ -1297,22 +1426,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1320,14 +1449,14 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1337,22 +1466,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1370,13 +1499,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1384,10 +1513,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
@@ -1398,10 +1527,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -1412,10 +1541,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -1426,10 +1555,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>

--- a/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
+++ b/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
   <si>
     <t>土地坐落</t>
   </si>
@@ -154,6 +154,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -197,6 +200,9 @@
   </si>
   <si>
     <t>凱基證</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-30</t>
@@ -992,13 +998,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1026,13 +1032,16 @@
       <c r="J1" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1050,21 +1059,24 @@
         <v>60000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="2">
+      <c r="K2" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1082,21 +1094,24 @@
         <v>112550</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J3" s="2">
+      <c r="K3" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1114,21 +1129,24 @@
         <v>20000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="2">
+      <c r="K4" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1146,21 +1164,24 @@
         <v>21200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="2">
+      <c r="K5" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1178,21 +1199,24 @@
         <v>50000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J6" s="2">
+      <c r="K6" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1210,21 +1234,24 @@
         <v>50000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1242,21 +1269,24 @@
         <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1274,21 +1304,24 @@
         <v>10000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -1306,21 +1339,24 @@
         <v>104500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -1338,21 +1374,24 @@
         <v>1291470</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -1370,21 +1409,24 @@
         <v>210000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <v>980</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1402,12 +1444,15 @@
         <v>1200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <v>980</v>
       </c>
     </row>
@@ -1426,22 +1471,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1449,14 +1494,14 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1466,22 +1511,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1499,13 +1544,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1513,10 +1558,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
@@ -1527,10 +1572,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -1541,10 +1586,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -1555,10 +1600,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>

--- a/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
+++ b/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="91">
   <si>
     <t>土地坐落</t>
   </si>
@@ -157,6 +157,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -166,10 +169,16 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>智微科</t>
   </si>
   <si>
-    <t>F-晨星</t>
+    <t>晨星</t>
   </si>
   <si>
     <t>新光鋼</t>
@@ -205,7 +214,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp386d1</t>
   </si>
   <si>
     <t>名稱</t>
@@ -998,13 +1013,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>38</v>
       </c>
@@ -1035,13 +1050,22 @@
       <c r="K1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>13</v>
@@ -1059,24 +1083,33 @@
         <v>60000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <v>980</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="M2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>13</v>
@@ -1094,24 +1127,33 @@
         <v>112550</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2">
+      <c r="L3" s="2">
         <v>980</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="M3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>13</v>
@@ -1129,24 +1171,33 @@
         <v>20000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="2">
+      <c r="L4" s="2">
         <v>980</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="M4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>13</v>
@@ -1164,24 +1215,33 @@
         <v>21200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>980</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="M5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>13</v>
@@ -1199,24 +1259,33 @@
         <v>50000</v>
       </c>
       <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="2">
+        <v>980</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N6" s="2">
         <v>60</v>
       </c>
-      <c r="I6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="2">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>13</v>
@@ -1234,24 +1303,33 @@
         <v>50000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="2">
+        <v>980</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" s="2">
         <v>61</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="2">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>13</v>
@@ -1269,24 +1347,33 @@
         <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>980</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="M8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -1304,24 +1391,33 @@
         <v>10000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="2">
+      <c r="L9" s="2">
         <v>980</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="M9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -1339,24 +1435,33 @@
         <v>104500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="2">
+      <c r="L10" s="2">
         <v>980</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="M10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
@@ -1374,24 +1479,33 @@
         <v>1291470</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="2">
+      <c r="L11" s="2">
         <v>980</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="M11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
@@ -1409,24 +1523,33 @@
         <v>210000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="2">
+      <c r="L12" s="2">
         <v>980</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="M12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>13</v>
@@ -1444,16 +1567,25 @@
         <v>1200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="2">
+      <c r="L13" s="2">
         <v>980</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="2">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1471,22 +1603,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1494,14 +1626,14 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1511,22 +1643,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1544,13 +1676,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1558,10 +1690,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>13</v>
@@ -1572,10 +1704,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
@@ -1586,10 +1718,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -1600,10 +1732,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>13</v>

--- a/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
+++ b/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
@@ -20,9 +20,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="91">
-  <si>
-    <t>土地坐落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="96">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮三條段06120016地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮三條段06130006地號</t>
+  </si>
+  <si>
+    <t>彰化縣員林鎮三條段06130012地號</t>
+  </si>
+  <si>
+    <t>324分之10</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>340分之10</t>
+  </si>
+  <si>
+    <t>劉慧如</t>
+  </si>
+  <si>
+    <t>93年03月22日</t>
+  </si>
+  <si>
+    <t>贈與</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>魏明谷</t>
+  </si>
+  <si>
+    <t>tmp386d1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -43,43 +127,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>彰化縣員林鎮三條段0612-0016 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮三條段0613-0006 地號</t>
-  </si>
-  <si>
-    <t>彰化縣員林鎮三條段0613-0012 地號</t>
-  </si>
-  <si>
-    <t>324分之10</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>340分之10</t>
-  </si>
-  <si>
-    <t>劉慧如</t>
-  </si>
-  <si>
-    <t>93年03月 22日</t>
-  </si>
-  <si>
-    <t>贈與</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
     <t>彰化縣員林鎮三條里忠孝街</t>
   </si>
   <si>
-    <t>魏明谷</t>
-  </si>
-  <si>
-    <t>93年02月 17日</t>
+    <t>93年02月17日</t>
   </si>
   <si>
     <t>新建</t>
@@ -94,10 +145,10 @@
     <t>所有人</t>
   </si>
   <si>
-    <t>N16ES SENTRA</t>
-  </si>
-  <si>
-    <t>94年03月 04日</t>
+    <t>N16ESSENTRA</t>
+  </si>
+  <si>
+    <t>94年03月04日</t>
   </si>
   <si>
     <t>貝賣</t>
@@ -136,12 +187,6 @@
     <t>新臺幣</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
-  </si>
-  <si>
     <t>quantity</t>
   </si>
   <si>
@@ -154,27 +199,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>智微科</t>
   </si>
   <si>
@@ -214,15 +238,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmp386d1</t>
-  </si>
-  <si>
     <t>名稱</t>
   </si>
   <si>
@@ -241,22 +256,22 @@
     <t>價</t>
   </si>
   <si>
-    <t>(九）珠寶、古董、字畫及#</t>
-  </si>
-  <si>
-    <t>財 產種類</t>
-  </si>
-  <si>
-    <t>-他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>項 /</t>
+    <t>(九）珠寶古董字畫及#</t>
+  </si>
+  <si>
+    <t>財產種類</t>
+  </si>
+  <si>
+    <t>他具有相當價值之財產（總作</t>
+  </si>
+  <si>
+    <t>項</t>
   </si>
   <si>
     <t>件</t>
   </si>
   <si>
-    <t>!額：新臺幣 元）</t>
+    <t>!額：新臺幣元）</t>
   </si>
   <si>
     <t>額</t>
@@ -283,7 +298,7 @@
     <t>二商美邦人壽</t>
   </si>
   <si>
-    <t>豐碩人生終生-B型</t>
+    <t>豐碩人生終生B型</t>
   </si>
   <si>
     <t>宏偉增額終生壽險</t>
@@ -651,13 +666,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -679,83 +694,167 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2">
         <v>2072333</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2">
+        <v>980</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>97.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2">
         <v>2072333</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2">
+        <v>980</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
         <v>342.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2">
         <v>2072333</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2">
+        <v>980</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="2">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -773,25 +872,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -799,22 +898,22 @@
         <v>21</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>191.2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2">
         <v>1109400</v>
@@ -835,22 +934,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -858,22 +957,22 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2">
         <v>1769</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -891,19 +990,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -911,16 +1010,16 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2">
         <v>1007883</v>
@@ -931,16 +1030,16 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2">
         <v>1513885</v>
@@ -951,16 +1050,16 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F4" s="2">
         <v>2650275</v>
@@ -971,16 +1070,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2">
         <v>3808654</v>
@@ -991,16 +1090,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F6" s="2">
         <v>308065</v>
@@ -1021,43 +1120,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1065,10 +1164,10 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D2" s="2">
         <v>6000</v>
@@ -1077,28 +1176,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2">
         <v>60000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L2" s="2">
         <v>980</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N2" s="2">
         <v>56</v>
@@ -1109,10 +1208,10 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D3" s="2">
         <v>11255</v>
@@ -1121,28 +1220,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G3" s="2">
         <v>112550</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L3" s="2">
         <v>980</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N3" s="2">
         <v>57</v>
@@ -1153,10 +1252,10 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>2000</v>
@@ -1165,28 +1264,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G4" s="2">
         <v>20000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L4" s="2">
         <v>980</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N4" s="2">
         <v>58</v>
@@ -1197,10 +1296,10 @@
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>2120</v>
@@ -1209,28 +1308,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G5" s="2">
         <v>21200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L5" s="2">
         <v>980</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N5" s="2">
         <v>59</v>
@@ -1241,10 +1340,10 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>5000</v>
@@ -1253,28 +1352,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G6" s="2">
         <v>50000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L6" s="2">
         <v>980</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N6" s="2">
         <v>60</v>
@@ -1285,10 +1384,10 @@
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>5000</v>
@@ -1297,28 +1396,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G7" s="2">
         <v>50000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2">
         <v>980</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N7" s="2">
         <v>61</v>
@@ -1329,10 +1428,10 @@
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>20000</v>
@@ -1341,28 +1440,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G8" s="2">
         <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2">
         <v>980</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N8" s="2">
         <v>62</v>
@@ -1373,10 +1472,10 @@
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>1000</v>
@@ -1385,28 +1484,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G9" s="2">
         <v>10000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L9" s="2">
         <v>980</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N9" s="2">
         <v>63</v>
@@ -1417,10 +1516,10 @@
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>10450</v>
@@ -1429,28 +1528,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2">
         <v>104500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L10" s="2">
         <v>980</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N10" s="2">
         <v>64</v>
@@ -1461,10 +1560,10 @@
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>129147</v>
@@ -1473,28 +1572,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2">
         <v>1291470</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L11" s="2">
         <v>980</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N11" s="2">
         <v>65</v>
@@ -1505,10 +1604,10 @@
         <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
         <v>21000</v>
@@ -1517,28 +1616,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G12" s="2">
         <v>210000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L12" s="2">
         <v>980</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N12" s="2">
         <v>66</v>
@@ -1549,10 +1648,10 @@
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>120000</v>
@@ -1561,28 +1660,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G13" s="2">
         <v>1200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="L13" s="2">
         <v>980</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
       <c r="N13" s="2">
         <v>67</v>
@@ -1603,22 +1702,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1626,14 +1725,14 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -1643,22 +1742,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1676,13 +1775,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1690,13 +1789,13 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1704,13 +1803,13 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1718,13 +1817,13 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1732,13 +1831,13 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
+++ b/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="76">
   <si>
     <t>name</t>
   </si>
@@ -70,12 +70,18 @@
     <t>total</t>
   </si>
   <si>
+    <t>彰化縣員林鎮三條段06120016地號</t>
+  </si>
+  <si>
     <t>彰化縣員林鎮三條段06130006地號</t>
   </si>
   <si>
     <t>彰化縣員林鎮三條段06130012地號</t>
   </si>
   <si>
+    <t>324分之10</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
@@ -152,6 +158,9 @@
   </si>
   <si>
     <t>currency</t>
+  </si>
+  <si>
+    <t>智微科</t>
   </si>
   <si>
     <t>晨星</t>
@@ -597,7 +606,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -655,107 +664,160 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>97.3</v>
+        <v>115</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="2">
         <v>2072333</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M2" s="2">
         <v>980</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O2" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P2" s="2">
-        <v>1</v>
+        <v>0.0308641975308642</v>
       </c>
       <c r="Q2" s="2">
-        <v>97.3</v>
+        <v>3.54938271604938</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="2">
-        <v>342.5</v>
+        <v>97.3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="2">
         <v>2072333</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M3" s="2">
         <v>980</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="2">
+        <v>15</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>97.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="1">
+        <v>16</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2">
+        <v>342.5</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2072333</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="2">
+      <c r="L4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2">
+        <v>980</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="2">
         <v>16</v>
       </c>
-      <c r="P3" s="2">
+      <c r="P4" s="2">
         <v>0.0294117647058824</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q4" s="2">
         <v>10.0735294117647</v>
       </c>
     </row>
@@ -766,33 +828,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:H1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>21</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="2">
         <v>191.2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1109400</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="K2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2">
+        <v>980</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="1">
-        <v>1109400</v>
+      <c r="O2" s="2">
+        <v>21</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>191.2</v>
       </c>
     </row>
   </sheetData>
@@ -801,687 +943,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1">
-        <v>1769</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="B1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1007883</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>46</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1513885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>47</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="2">
-        <v>2650275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>48</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2">
-        <v>3808654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>49</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="2">
-        <v>308065</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:14">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1">
-        <v>57</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="2">
-        <v>11255</v>
-      </c>
-      <c r="E2" s="2">
-        <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2">
-        <v>112550</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L2" s="2">
-        <v>980</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>58</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2000</v>
-      </c>
-      <c r="E3" s="2">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="2">
-        <v>20000</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2">
-        <v>980</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" s="2">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>59</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2120</v>
-      </c>
-      <c r="E4" s="2">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="2">
-        <v>21200</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="2">
-        <v>980</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" s="2">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>60</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E5" s="2">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="2">
-        <v>50000</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="2">
-        <v>980</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" s="2">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="1">
-        <v>61</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="2">
-        <v>5000</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="2">
-        <v>50000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="2">
-        <v>980</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N6" s="2">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="1">
-        <v>62</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="2">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="2">
-        <v>200000</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L7" s="2">
-        <v>980</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="2">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="1">
-        <v>63</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="2">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="2">
-        <v>10000</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L8" s="2">
-        <v>980</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N8" s="2">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="1">
-        <v>64</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2">
-        <v>10450</v>
-      </c>
-      <c r="E9" s="2">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G9" s="2">
-        <v>104500</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L9" s="2">
-        <v>980</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="2">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="1">
-        <v>65</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="2">
-        <v>129147</v>
-      </c>
-      <c r="E10" s="2">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1291470</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L10" s="2">
-        <v>980</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="2">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="1">
-        <v>66</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2">
-        <v>21000</v>
-      </c>
-      <c r="E11" s="2">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="2">
-        <v>210000</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L11" s="2">
-        <v>980</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="2">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="1">
-        <v>67</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="2">
-        <v>120000</v>
-      </c>
-      <c r="E12" s="2">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G12" s="2">
-        <v>1200000</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="L12" s="2">
-        <v>980</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="2">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -1491,21 +952,789 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1769</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1769</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1">
+        <v>1007883</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1007883</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1513885</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2650275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>48</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3808654</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>49</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="2">
+        <v>308065</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1">
         <v>56</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2">
+        <v>6000</v>
+      </c>
+      <c r="E2" s="2">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="2">
+        <v>60000</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>980</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2">
+        <v>11255</v>
+      </c>
+      <c r="E3" s="2">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2">
+        <v>112550</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
+        <v>980</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N3" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2000</v>
+      </c>
+      <c r="E4" s="2">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2">
+        <v>20000</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2">
+        <v>980</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N4" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1">
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2120</v>
+      </c>
+      <c r="E5" s="2">
+        <v>10</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2">
+        <v>21200</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2">
+        <v>980</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1">
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E6" s="2">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2">
+        <v>980</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N6" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1">
+        <v>61</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5000</v>
+      </c>
+      <c r="E7" s="2">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2">
+        <v>50000</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2">
+        <v>980</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1">
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="2">
+        <v>10</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G8" s="2">
+        <v>200000</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="2">
+        <v>980</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1">
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1000</v>
+      </c>
+      <c r="E9" s="2">
+        <v>10</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="2">
+        <v>10000</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="2">
+        <v>980</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N9" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1">
+        <v>64</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10450</v>
+      </c>
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="2">
+        <v>104500</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="2">
+        <v>980</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N10" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1">
+        <v>65</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2">
+        <v>129147</v>
+      </c>
+      <c r="E11" s="2">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2">
+        <v>1291470</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="2">
+        <v>980</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2">
+        <v>21000</v>
+      </c>
+      <c r="E12" s="2">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="2">
+        <v>210000</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="2">
+        <v>980</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1">
+        <v>67</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2">
+        <v>120000</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1200000</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="2">
+        <v>980</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="2">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
+        <v>59</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>59</v>
@@ -1513,17 +1742,34 @@
       <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
+        <v>85</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>64</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1533,7 +1779,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1541,55 +1787,69 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1">
+        <v>93</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
         <v>94</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>20</v>
+      <c r="C5" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
+++ b/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="77">
   <si>
     <t>name</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>新建</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>N16ESSENTRA</t>
@@ -944,38 +947,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1">
-        <v>1769</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2">
         <v>1769</v>
@@ -984,13 +1008,34 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
+        <v>980</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1008,13 +1053,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1028,13 +1073,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1048,13 +1093,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1068,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1088,13 +1133,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1108,13 +1153,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1144,13 +1189,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1182,7 +1227,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1194,13 +1239,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" s="2">
         <v>60000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1226,7 +1271,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1238,13 +1283,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G3" s="2">
         <v>112550</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1270,7 +1315,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1282,13 +1327,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="2">
         <v>20000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1314,7 +1359,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1326,13 +1371,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G5" s="2">
         <v>21200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1358,7 +1403,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1370,13 +1415,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G6" s="2">
         <v>50000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
@@ -1402,7 +1447,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1414,13 +1459,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2">
         <v>50000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>26</v>
@@ -1446,7 +1491,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -1458,13 +1503,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="2">
         <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>26</v>
@@ -1490,7 +1535,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
@@ -1502,13 +1547,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G9" s="2">
         <v>10000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>26</v>
@@ -1534,7 +1579,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -1546,13 +1591,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G10" s="2">
         <v>104500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>26</v>
@@ -1578,7 +1623,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -1590,13 +1635,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="2">
         <v>1291470</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>26</v>
@@ -1622,7 +1667,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
@@ -1634,13 +1679,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G12" s="2">
         <v>210000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>26</v>
@@ -1666,7 +1711,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -1678,13 +1723,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G13" s="2">
         <v>1200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>26</v>
@@ -1720,14 +1765,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1737,16 +1782,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1754,22 +1799,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1787,10 +1832,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -1801,10 +1846,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -1815,10 +1860,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1829,10 +1874,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -1843,10 +1888,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
+++ b/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="79">
   <si>
     <t>name</t>
   </si>
@@ -121,6 +121,9 @@
     <t>新建</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -134,6 +137,9 @@
   </si>
   <si>
     <t>(超過五年）</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>臺灣銀行員林</t>
@@ -913,7 +919,7 @@
         <v>1109400</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>26</v>
@@ -958,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -999,7 +1005,7 @@
         <v>31</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2">
         <v>1769</v>
@@ -1008,16 +1014,16 @@
         <v>28</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1053,13 +1059,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>22</v>
@@ -1073,13 +1079,13 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1093,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1113,13 +1119,13 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1133,13 +1139,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1153,13 +1159,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
@@ -1189,13 +1195,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1227,7 +1233,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1239,13 +1245,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2">
         <v>60000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1271,7 +1277,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1283,13 +1289,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G3" s="2">
         <v>112550</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1315,7 +1321,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1327,13 +1333,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G4" s="2">
         <v>20000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1359,7 +1365,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1371,13 +1377,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" s="2">
         <v>21200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1403,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1415,13 +1421,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G6" s="2">
         <v>50000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
@@ -1447,7 +1453,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1459,13 +1465,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G7" s="2">
         <v>50000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>26</v>
@@ -1491,7 +1497,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -1503,13 +1509,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G8" s="2">
         <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>26</v>
@@ -1535,7 +1541,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
@@ -1547,13 +1553,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G9" s="2">
         <v>10000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>26</v>
@@ -1579,7 +1585,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -1591,13 +1597,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G10" s="2">
         <v>104500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>26</v>
@@ -1623,7 +1629,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -1635,13 +1641,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="2">
         <v>1291470</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>26</v>
@@ -1667,7 +1673,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
@@ -1679,13 +1685,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G12" s="2">
         <v>210000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>26</v>
@@ -1711,7 +1717,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -1723,13 +1729,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G13" s="2">
         <v>1200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>26</v>
@@ -1765,14 +1771,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1782,16 +1788,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1799,22 +1805,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1832,10 +1838,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -1846,10 +1852,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -1860,10 +1866,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1874,10 +1880,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -1888,10 +1894,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
+++ b/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="82">
   <si>
     <t>name</t>
   </si>
@@ -142,31 +142,40 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>臺灣銀行員林</t>
   </si>
   <si>
+    <t>華南商業銀行斗六</t>
+  </si>
+  <si>
+    <t>台中商業銀行田中</t>
+  </si>
+  <si>
+    <t>第一商業銀行員林</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>華南商業銀行斗六</t>
-  </si>
-  <si>
-    <t>台中商業銀行田中</t>
-  </si>
-  <si>
-    <t>第一商業銀行員林</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>智微科</t>
@@ -1051,13 +1060,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1068,24 +1077,45 @@
         <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F1" s="1">
-        <v>1007883</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>22</v>
@@ -1093,19 +1123,40 @@
       <c r="F2" s="2">
         <v>1007883</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2">
+        <v>980</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>28</v>
@@ -1113,19 +1164,40 @@
       <c r="F3" s="2">
         <v>1513885</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2">
+        <v>980</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>22</v>
@@ -1133,19 +1205,40 @@
       <c r="F4" s="2">
         <v>2650275</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2">
+        <v>980</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>22</v>
@@ -1153,25 +1246,67 @@
       <c r="F5" s="2">
         <v>3808654</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2">
+        <v>980</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="F6" s="2">
         <v>308065</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2">
+        <v>980</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="2">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1195,13 +1330,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1233,7 +1368,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -1245,13 +1380,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G2" s="2">
         <v>60000</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>26</v>
@@ -1277,7 +1412,7 @@
         <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1289,13 +1424,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G3" s="2">
         <v>112550</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
@@ -1321,7 +1456,7 @@
         <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
@@ -1333,13 +1468,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G4" s="2">
         <v>20000</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>26</v>
@@ -1365,7 +1500,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>22</v>
@@ -1377,13 +1512,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G5" s="2">
         <v>21200</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>26</v>
@@ -1409,7 +1544,7 @@
         <v>60</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
@@ -1421,13 +1556,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G6" s="2">
         <v>50000</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>26</v>
@@ -1453,7 +1588,7 @@
         <v>61</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>22</v>
@@ -1465,13 +1600,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G7" s="2">
         <v>50000</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>26</v>
@@ -1497,7 +1632,7 @@
         <v>62</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>22</v>
@@ -1509,13 +1644,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G8" s="2">
         <v>200000</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>26</v>
@@ -1541,7 +1676,7 @@
         <v>63</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>22</v>
@@ -1553,13 +1688,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2">
         <v>10000</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>26</v>
@@ -1585,7 +1720,7 @@
         <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>22</v>
@@ -1597,13 +1732,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G10" s="2">
         <v>104500</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>26</v>
@@ -1629,7 +1764,7 @@
         <v>65</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>22</v>
@@ -1641,13 +1776,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G11" s="2">
         <v>1291470</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>26</v>
@@ -1673,7 +1808,7 @@
         <v>66</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>22</v>
@@ -1685,13 +1820,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G12" s="2">
         <v>210000</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>26</v>
@@ -1717,7 +1852,7 @@
         <v>67</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>22</v>
@@ -1729,13 +1864,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G13" s="2">
         <v>1200000</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>26</v>
@@ -1771,14 +1906,14 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1788,16 +1923,16 @@
         <v>84</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1805,22 +1940,22 @@
         <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1838,10 +1973,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -1852,10 +1987,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -1866,10 +2001,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -1880,10 +2015,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -1894,10 +2029,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
+++ b/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
@@ -12,15 +12,14 @@
     <sheet name="汽車" sheetId="3" r:id="rId3"/>
     <sheet name="存款" sheetId="4" r:id="rId4"/>
     <sheet name="股票" sheetId="5" r:id="rId5"/>
-    <sheet name="其他有價證券" sheetId="6" r:id="rId6"/>
-    <sheet name="保險" sheetId="7" r:id="rId7"/>
+    <sheet name="保險" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="73">
   <si>
     <t>name</t>
   </si>
@@ -215,33 +214,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>(九）珠寶古董字畫及#</t>
-  </si>
-  <si>
-    <t>他具有相當價值之財產（總作</t>
-  </si>
-  <si>
-    <t>!額：新臺幣元）</t>
-  </si>
-  <si>
-    <t>財產種類</t>
-  </si>
-  <si>
-    <t>項</t>
-  </si>
-  <si>
-    <t>件</t>
-  </si>
-  <si>
-    <t>價</t>
-  </si>
-  <si>
-    <t>額</t>
-  </si>
-  <si>
-    <t>所有人</t>
   </si>
   <si>
     <t>台灣人壽</t>
@@ -1898,73 +1870,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>84</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1973,10 +1878,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>22</v>
@@ -1987,10 +1892,10 @@
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -2001,10 +1906,10 @@
         <v>92</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
@@ -2015,10 +1920,10 @@
         <v>93</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
@@ -2029,10 +1934,10 @@
         <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>

--- a/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
+++ b/legislator/property/output/normal/魏明谷_2012-04-30_財產申報表_tmp386d1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="75">
   <si>
     <t>name</t>
   </si>
@@ -216,21 +216,24 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
     <t>台灣人壽</t>
   </si>
   <si>
+    <t>宏泰人壽</t>
+  </si>
+  <si>
+    <t>南山人壽</t>
+  </si>
+  <si>
+    <t>二商美邦人壽</t>
+  </si>
+  <si>
     <t>豐碩人生終生B型</t>
   </si>
   <si>
-    <t>宏泰人壽</t>
-  </si>
-  <si>
-    <t>南山人壽</t>
-  </si>
-  <si>
-    <t>二商美邦人壽</t>
-  </si>
-  <si>
     <t>宏偉增額終生壽險</t>
   </si>
   <si>
@@ -238,6 +241,9 @@
   </si>
   <si>
     <t>六年缴費六六大順增額養老</t>
+  </si>
+  <si>
+    <t>insurance</t>
   </si>
 </sst>
 </file>
@@ -1870,38 +1876,80 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>91</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="2">
+        <v>980</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>92</v>
       </c>
@@ -1909,13 +1957,34 @@
         <v>67</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="2">
+        <v>980</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>93</v>
       </c>
@@ -1923,13 +1992,34 @@
         <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="2">
+        <v>980</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>94</v>
       </c>
@@ -1937,10 +2027,31 @@
         <v>69</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="2">
+        <v>980</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="2">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
